--- a/03. Analisis y diseño/04. Base de datos/03. Datos/Asignaturas_carreras/asignaturas_carreras.xlsx
+++ b/03. Analisis y diseño/04. Base de datos/03. Datos/Asignaturas_carreras/asignaturas_carreras.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="100" uniqueCount="37">
   <si>
-    <t>Análisis Matematico I</t>
-  </si>
-  <si>
     <t>Matemática discreta</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Ciencia, Universidad y Sociedad</t>
+  </si>
+  <si>
+    <t>Análisis Matemático I</t>
   </si>
 </sst>
 </file>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,10 +549,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="6">
         <v>1</v>
@@ -560,10 +560,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -571,10 +571,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -582,10 +582,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -637,10 +637,10 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -659,10 +659,10 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -692,10 +692,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -703,10 +703,10 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -714,10 +714,10 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -736,10 +736,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -802,10 +802,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -824,10 +824,10 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
@@ -835,10 +835,10 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
@@ -857,10 +857,10 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -879,10 +879,10 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -890,10 +890,10 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -901,10 +901,10 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -923,10 +923,10 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2">
         <v>2</v>
@@ -934,10 +934,10 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
@@ -956,10 +956,10 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2">
         <v>2</v>
@@ -978,10 +978,10 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2">
         <v>3</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2">
         <v>3</v>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2">
         <v>3</v>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2">
         <v>3</v>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2">
         <v>3</v>
@@ -1033,10 +1033,10 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="2">
         <v>4</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="2">
         <v>4</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2">
         <v>4</v>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="2">
         <v>4</v>
@@ -1077,10 +1077,10 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2">
         <v>4</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2">
         <v>4</v>
